--- a/EuroSkills/Cisco/1001001002-asa_os.xlsx
+++ b/EuroSkills/Cisco/1001001002-asa_os.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -104,7 +104,7 @@
     security-level 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Enable management access to an interface.</t>
+    <t xml:space="preserve">Enable management access to the inside interface from an outside VPN interface.</t>
   </si>
   <si>
     <t xml:space="preserve">configure terminal
@@ -237,6 +237,126 @@
   username {{ name }} attributes
     service-type remote-access</t>
   </si>
+  <si>
+    <t xml:space="preserve">Configure global icmp inspection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  policy-map global_policy
+    class inspection_default
+      inspect icmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow traffic to exit on the ingress interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  same-security-traffic permit intra-interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow traffic between interfaces with the same security-level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  same-security-traffic permit inter-interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure NAT for the inside subnet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  object network {{ name }}
+  subnet {{ subnet }} {{ mask }}
+  nat ({{ inside_interface }},{{ outside_interface }}) dynamic interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable debug level logging to the logging buffer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  logging enable
+  logging buffered debugging
+  logging buffer-size {{ number }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the logging buffer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  show logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipsec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a IPsec IKEv2 site to site VPN to a cisco IOS-XE router.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A VTI should be used to facilitate this task.
+The default parameters of IOS-XE should be used whereever possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure IKEv2 policy
+Enable IKEv2 on ouside interface
+Configure Ipsec proposal
+Configure Ipsec profile
+Configure group policy
+Configure tunnel group
+Configure VTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 policy {{ number }}
+    encryption aes-256
+    integrity sha512 sha384
+    group 19 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ikev2 enable {{ outside_interface }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ipsec ikev2 ipsec-proposal {{ name }}
+    protocol esp encryption aes-256 aes-192
+    protocol esp integrity sha-512 sha-384 sha-256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  crypto ipsec profile {{ name }}
+    set ikev2 ipsec-proposal {{ name }}	
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+configure terminal
+  group-policy {{ peer_ip }} internal
+  group-policy {{ peer_ip }} attributes
+    vpn-tunnel-protocol ikev2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  tunnel-group {{ peer_ip }} type ipsec-l2l
+  tunnel-group {{ peer_ip }} general-attributes
+    default-group-policy {{ peer_ip }}
+  tunnel-group {{ peer_ip }} ipsec-attributes
+    ikev2 remote-authentication pre-shared-key {{ password }}
+    ikev2 local-authentication pre-shared-key {{ password }}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure terminal
+  interface tunnel {{ number }}
+    Nameif {{ name }}
+    ip addr {{ ip }} {{ mask }}
+    tunnel source interface {{ outside_interface }}
+    tunnel destination {{ peer_ip }}
+    tunnel mode ipsec ipv4
+    tunnel protection ipsec profile {{ name }}</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -273,6 +393,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -344,7 +469,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,8 +552,8 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,7 +867,7 @@
       <c r="J11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -752,36 +877,104 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -790,10 +983,43 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="4"/>
@@ -833,7 +1059,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
